--- a/技能表.xlsx
+++ b/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="17030" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>模块</t>
   </si>
@@ -49,13 +49,16 @@
     <t>边缘光</t>
   </si>
   <si>
+    <t>伽马校正</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Bloom动画后处理</t>
   </si>
   <si>
     <t>PRB与卡渲相结合</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>屏幕后处理</t>
@@ -165,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -205,6 +208,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -220,14 +238,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,25 +254,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,6 +307,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -312,6 +322,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -321,7 +338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,22 +351,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,7 +409,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,19 +499,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,55 +553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,67 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +718,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -738,15 +744,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -763,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,36 +772,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,92 +817,92 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,15 +912,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,21 +933,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,27 +949,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,444 +1287,457 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="1" customWidth="1"/>
-    <col min="6" max="23" width="8.625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="25.6333333333333" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.725" style="1"/>
+    <col min="1" max="1" width="20.6272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6272727272727" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6272727272727" style="1" customWidth="1"/>
+    <col min="6" max="23" width="8.62727272727273" style="1" customWidth="1"/>
+    <col min="24" max="26" width="25.6363636363636" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>1</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="3">
         <v>2</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="3">
         <v>3</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="3">
         <v>4</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="3">
         <v>5</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="3">
         <v>6</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="3">
         <v>7</v>
       </c>
-      <c r="M1" s="5">
-        <v>8</v>
-      </c>
-      <c r="N1" s="5">
+      <c r="M1" s="3">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3">
         <v>9</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
+    <row r="7" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A15" s="18"/>
-      <c r="B15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="10"/>
+      <c r="D18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="10"/>
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="10"/>
+      <c r="D22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A28" s="9"/>
+      <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A29" s="11"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="18"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29" t="s">
+      <c r="D30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A31" s="9"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="31"/>
+      <c r="D31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A31"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27 D2:D22 D23:D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D28 D2:D4 D6:D23 D24:D27">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
   </dataValidations>
